--- a/biology/Zoologie/Chrysodeixis_chalcites/Chrysodeixis_chalcites.xlsx
+++ b/biology/Zoologie/Chrysodeixis_chalcites/Chrysodeixis_chalcites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Plusie chalcite (Chrysodeixis chalcites) est une espèce de lépidoptères (papillons) de la famille des Noctuidae.
 Ses larves se nourrissent de Echium vulgare, Apium, Rubus, mais aussi de Fragaria (fraisiers), tabac et tomate.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phalaena-Noctua chalcites Esper, 1789
 Plusia verticillata
